--- a/Gannt Actualizado 09_03.xlsx
+++ b/Gannt Actualizado 09_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/Gannt Actualizado 09:"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239A266A-ED29-C34C-89E8-69CB7A6B8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{239A266A-ED29-C34C-89E8-69CB7A6B8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35173B84-8951-1342-BEB2-79BB15FA18BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,45 +645,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,8 +990,8 @@
   </sheetPr>
   <dimension ref="B1:X1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="164" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="164" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1008,28 +1008,28 @@
   <sheetData>
     <row r="1" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
     </row>
     <row r="2" spans="2:24" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
@@ -1086,10 +1086,10 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="63" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
@@ -1155,10 +1155,10 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1182,10 +1182,10 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -1209,7 +1209,7 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1244,7 +1244,7 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="42"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B8" s="43"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>44998</v>
       </c>
       <c r="E9" s="22">
-        <v>45003</v>
+        <v>44998</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>70</v>
@@ -1354,7 +1354,7 @@
         <v>44998</v>
       </c>
       <c r="E10" s="22">
-        <v>45003</v>
+        <v>44998</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>70</v>
@@ -1378,7 +1378,7 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1415,7 +1415,7 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B12" s="33"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1438,11 +1438,11 @@
       <c r="L12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1452,7 +1452,7 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1475,11 +1475,11 @@
         <v>75</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -1489,7 +1489,7 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" s="28"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1510,11 +1510,11 @@
         <v>75</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -1539,11 +1539,11 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -1578,11 +1578,11 @@
         <v>75</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -1592,10 +1592,10 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="3">
         <v>45040</v>
       </c>
@@ -1625,10 +1625,10 @@
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
@@ -1652,7 +1652,7 @@
       <c r="X18" s="5"/>
     </row>
     <row r="19" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1689,7 +1689,7 @@
       <c r="X19" s="5"/>
     </row>
     <row r="20" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="X20" s="5"/>
     </row>
     <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1761,7 +1761,7 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="33"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="10" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="X22" s="5"/>
     </row>
     <row r="23" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B23" s="28"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="10" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="X23" s="5"/>
     </row>
     <row r="24" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1868,7 +1868,7 @@
       <c r="X24" s="5"/>
     </row>
     <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="33"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="10" t="s">
         <v>34</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="X25" s="5"/>
     </row>
     <row r="26" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="10" t="s">
         <v>35</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="X27" s="5"/>
     </row>
     <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2049,10 +2049,10 @@
       <c r="X29" s="5"/>
     </row>
     <row r="30" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
@@ -2076,7 +2076,7 @@
       <c r="X30" s="5"/>
     </row>
     <row r="31" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -2111,7 +2111,7 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="33"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="28"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="10" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -2212,7 +2212,7 @@
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="33"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B36" s="33"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B37" s="28"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="10" t="s">
         <v>46</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -2346,7 +2346,7 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B39" s="33"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="10" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B40" s="28"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="10" t="s">
         <v>50</v>
       </c>
@@ -2412,10 +2412,10 @@
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2439,7 +2439,7 @@
       <c r="X41" s="5"/>
     </row>
     <row r="42" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -2474,7 +2474,7 @@
       <c r="X42" s="5"/>
     </row>
     <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="28"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="10" t="s">
         <v>53</v>
       </c>
@@ -2507,10 +2507,10 @@
       <c r="X43" s="5"/>
     </row>
     <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="32"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="3">
         <v>44970</v>
       </c>
@@ -2540,10 +2540,10 @@
       <c r="X44" s="5"/>
     </row>
     <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="3">
         <v>44970</v>
       </c>
@@ -2573,10 +2573,10 @@
       <c r="X45" s="5"/>
     </row>
     <row r="46" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="36"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="3">
         <v>44970</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="X46" s="5"/>
     </row>
     <row r="47" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -2641,7 +2641,7 @@
       <c r="X47" s="5"/>
     </row>
     <row r="48" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="28"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="10" t="s">
         <v>37</v>
       </c>
@@ -26600,13 +26600,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B44:C44"/>
@@ -26622,6 +26615,13 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H50:X1006 H5:X8 M9:X10 H9:K10 H11:X48">
